--- a/data-raw/costs_op.xlsx
+++ b/data-raw/costs_op.xlsx
@@ -42,10 +42,10 @@
     <t>ref</t>
   </si>
   <si>
-    <t>Skinner, Karen E., et al. "Healthcare costs in patients with advanced non-small cell lung cancer and disease progression during targeted therapy: a real-world observational study." Journal of medical economics 21.2 (2018): 192-200.</t>
-  </si>
-  <si>
     <t>None. Currently assuming same as P1/S2</t>
+  </si>
+  <si>
+    <t>skinner2018healthcare</t>
   </si>
 </sst>
 </file>
@@ -107,27 +107,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -461,7 +465,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -484,21 +488,21 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>B3</f>
         <v>127860</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -509,11 +513,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -524,8 +528,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/costs_op.xlsx
+++ b/data-raw/costs_op.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenjansen/Egnyte/Shared/RW GENERAL (MANAGEMENT)/Jeroen only access/IVI/GitHub/IVI-NSCLC/data-raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F566DDFA-C75B-1740-9022-C89403A99724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_op" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>state_name</t>
   </si>
@@ -40,9 +46,6 @@
   </si>
   <si>
     <t>ref</t>
-  </si>
-  <si>
-    <t>None. Currently assuming same as P1/S2</t>
   </si>
   <si>
     <t>skinner2018healthcare</t>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -84,18 +87,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,13 +114,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -133,10 +131,18 @@
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,19 +467,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,49 +493,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <f>B3</f>
-        <v>127860</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
+      <c r="B2" s="3">
+        <f>896+556+251+158</f>
+        <v>1861</v>
+      </c>
+      <c r="C2" s="4">
+        <f>ROUND(B2*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
+        <v>258</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>10655 * 12</f>
-        <v>127860</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
+      <c r="B3" s="1">
+        <f>1781+436+204+163</f>
+        <v>2584</v>
+      </c>
+      <c r="C3" s="4">
+        <f>ROUND(B3*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
+        <v>359</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>10644 * 12</f>
-        <v>127728</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
+        <f>1781+436+204+163</f>
+        <v>2584</v>
+      </c>
+      <c r="C4" s="4">
+        <f>ROUND(B4*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
+        <v>359</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/costs_op.xlsx
+++ b/data-raw/costs_op.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenjansen/Egnyte/Shared/RW GENERAL (MANAGEMENT)/Jeroen only access/IVI/GitHub/IVI-NSCLC/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F566DDFA-C75B-1740-9022-C89403A99724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F65B0B-0100-F540-8426-CD40EBE22274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8480" yWindow="8700" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_op" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,13 +497,13 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <f>896+556+251+158</f>
-        <v>1861</v>
+      <c r="B2" s="1">
+        <f>896+158</f>
+        <v>1054</v>
       </c>
       <c r="C2" s="4">
         <f>ROUND(B2*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -514,12 +514,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>1781+436+204+163</f>
-        <v>2584</v>
+        <f>1781+163</f>
+        <v>1944</v>
       </c>
       <c r="C3" s="4">
         <f>ROUND(B3*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -530,12 +530,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>1781+436+204+163</f>
-        <v>2584</v>
+        <f>1781+163</f>
+        <v>1944</v>
       </c>
       <c r="C4" s="4">
         <f>ROUND(B4*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>

--- a/data-raw/costs_op.xlsx
+++ b/data-raw/costs_op.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenjansen/Egnyte/Shared/RW GENERAL (MANAGEMENT)/Jeroen only access/IVI/GitHub/IVI-NSCLC/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F65B0B-0100-F540-8426-CD40EBE22274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB510B9-1903-3646-B9B8-30E635604118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="8700" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14540" yWindow="10220" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_op" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,7 +108,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -113,8 +117,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -122,8 +127,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="Comma" xfId="8" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -471,7 +478,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,12 +521,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>1781+163</f>
-        <v>1944</v>
-      </c>
-      <c r="C3" s="4">
-        <f>ROUND(B3*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
-        <v>270</v>
+        <f>1109+178</f>
+        <v>1287</v>
+      </c>
+      <c r="C3" s="5">
+        <f>ROUND(B3*((23218-15329)/3.92)/19274,0)</f>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -530,12 +537,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>1781+163</f>
-        <v>1944</v>
-      </c>
-      <c r="C4" s="4">
-        <f>ROUND(B4*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
-        <v>270</v>
+        <f>1109+178</f>
+        <v>1287</v>
+      </c>
+      <c r="C4" s="5">
+        <f>ROUND(B4*((23218-15329)/3.92)/19274,0)</f>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>

--- a/data-raw/costs_op.xlsx
+++ b/data-raw/costs_op.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenjansen/Egnyte/Shared/RW GENERAL (MANAGEMENT)/Jeroen only access/IVI/GitHub/IVI-NSCLC/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB510B9-1903-3646-B9B8-30E635604118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D64CF-7172-6A4F-99A4-322F6F9F0067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="10220" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12140" yWindow="11580" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_op" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>state_name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>skinner2018healthcare</t>
+  </si>
+  <si>
+    <t>Graham2018BIA</t>
   </si>
 </sst>
 </file>
@@ -126,8 +129,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -478,7 +483,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,15 +510,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>896+158</f>
-        <v>1054</v>
+        <f>ROUND(1.2*(1643.16-(1375.84+121.61+93.2)),0)</f>
+        <v>63</v>
       </c>
       <c r="C2" s="4">
-        <f>ROUND(B2*SQRT(((23376-16836)/3.92)^2-(((12358-6551)/3.92)^2+((9919-7141)/3.92)^2))/(20106-9454-8530),0)</f>
-        <v>146</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+        <f>ROUND(B2*((2927.15-1027.33)/3.92)/1971.79,0)</f>
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -521,12 +526,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>1109+178</f>
-        <v>1287</v>
-      </c>
-      <c r="C3" s="5">
+        <f>1442+182</f>
+        <v>1624</v>
+      </c>
+      <c r="C3" s="4">
         <f>ROUND(B3*((23218-15329)/3.92)/19274,0)</f>
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -540,7 +545,7 @@
         <f>1109+178</f>
         <v>1287</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>ROUND(B4*((23218-15329)/3.92)/19274,0)</f>
         <v>134</v>
       </c>

--- a/data-raw/costs_op.xlsx
+++ b/data-raw/costs_op.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenjansen/Egnyte/Shared/RW GENERAL (MANAGEMENT)/Jeroen only access/IVI/GitHub/IVI-NSCLC/data-raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D64CF-7172-6A4F-99A4-322F6F9F0067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="11580" windowWidth="20480" windowHeight="6560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="costs_op" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,13 +45,13 @@
     <t>skinner2018healthcare</t>
   </si>
   <si>
-    <t>Graham2018BIA</t>
+    <t>graham2018budget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -143,7 +137,7 @@
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -479,19 +473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -521,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
